--- a/master/Data Structure.xlsx
+++ b/master/Data Structure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\PyroSQL\master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4305A421-B660-411C-A9AB-1D3370901712}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C47DCE4-25C3-468E-9AFF-0E0519759AE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2844" yWindow="4164" windowWidth="13824" windowHeight="7560" tabRatio="900" firstSheet="1" activeTab="6" xr2:uid="{846B9E9D-D098-477E-A586-B6E91E568590}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="900" firstSheet="1" activeTab="6" xr2:uid="{846B9E9D-D098-477E-A586-B6E91E568590}"/>
   </bookViews>
   <sheets>
     <sheet name="Vendor" sheetId="5" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="583">
   <si>
     <t>DataStructureTypeID</t>
   </si>
@@ -2124,6 +2124,30 @@
   </si>
   <si>
     <t>IsNullable</t>
+  </si>
+  <si>
+    <t>{{datatype}} {{isnullable}}</t>
+  </si>
+  <si>
+    <t>Boolean True or False</t>
+  </si>
+  <si>
+    <t>bit varying</t>
+  </si>
+  <si>
+    <t>timestamp without time zone</t>
+  </si>
+  <si>
+    <t>timestamp with time zone</t>
+  </si>
+  <si>
+    <t>time without time zone</t>
+  </si>
+  <si>
+    <t>time with time zone</t>
+  </si>
+  <si>
+    <t>character varying</t>
   </si>
 </sst>
 </file>
@@ -36754,10 +36778,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E31DF38-E108-4B4A-8599-0799D6609EA9}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="G47" sqref="G2:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.6640625" defaultRowHeight="14.4"/>
@@ -36769,7 +36793,7 @@
     <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>484</v>
       </c>
@@ -36785,8 +36809,11 @@
       <c r="E1" s="3" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
         <v>437</v>
       </c>
@@ -36804,8 +36831,11 @@
         <f>A2</f>
         <v>bigint</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="G2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="7" t="s">
         <v>438</v>
       </c>
@@ -36823,8 +36853,11 @@
         <f>A3</f>
         <v>bigserial</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>492</v>
       </c>
@@ -36839,8 +36872,11 @@
       <c r="E4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="7" t="s">
         <v>494</v>
       </c>
@@ -36858,8 +36894,11 @@
         <f>A5</f>
         <v>bit varying [ (n) ]</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="7" t="s">
         <v>440</v>
       </c>
@@ -36877,8 +36916,11 @@
         <f>A6</f>
         <v>boolean</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="7" t="s">
         <v>441</v>
       </c>
@@ -36894,8 +36936,11 @@
         <f>A7</f>
         <v>box</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="G7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="7" t="s">
         <v>442</v>
       </c>
@@ -36911,8 +36956,11 @@
         <f>A8</f>
         <v>bytea</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
         <v>501</v>
       </c>
@@ -36929,8 +36977,11 @@
       <c r="E9" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="G9" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="7" t="s">
         <v>504</v>
       </c>
@@ -36947,8 +36998,11 @@
       <c r="E10" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="G10" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="7" t="s">
         <v>444</v>
       </c>
@@ -36961,11 +37015,14 @@
         <v>507</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" ref="E11:E23" si="1">A11</f>
+        <f t="shared" ref="E10:G23" si="1">A11</f>
         <v>cidr</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="G11" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="7" t="s">
         <v>445</v>
       </c>
@@ -36981,8 +37038,11 @@
         <f t="shared" si="1"/>
         <v>circle</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="G12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="7" t="s">
         <v>446</v>
       </c>
@@ -36998,8 +37058,11 @@
         <f t="shared" si="1"/>
         <v>date</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="G13" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="7" t="s">
         <v>447</v>
       </c>
@@ -37017,8 +37080,11 @@
         <f t="shared" si="1"/>
         <v>double precision</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="G14" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="7" t="s">
         <v>449</v>
       </c>
@@ -37034,8 +37100,11 @@
         <f t="shared" si="1"/>
         <v>inet</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="G15" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="7" t="s">
         <v>450</v>
       </c>
@@ -37053,8 +37122,11 @@
         <f t="shared" si="1"/>
         <v>integer</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="7" t="s">
         <v>515</v>
       </c>
@@ -37070,8 +37142,11 @@
         <f t="shared" si="1"/>
         <v>interval [ fields ] [ (p) ]</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="7" t="s">
         <v>452</v>
       </c>
@@ -37087,8 +37162,11 @@
         <f t="shared" si="1"/>
         <v>json</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="7" t="s">
         <v>454</v>
       </c>
@@ -37104,8 +37182,11 @@
         <f t="shared" si="1"/>
         <v>jsonb</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="7" t="s">
         <v>455</v>
       </c>
@@ -37121,8 +37202,11 @@
         <f t="shared" si="1"/>
         <v>line</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="7" t="s">
         <v>456</v>
       </c>
@@ -37138,8 +37222,11 @@
         <f t="shared" si="1"/>
         <v>lseg</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="7" t="s">
         <v>457</v>
       </c>
@@ -37155,8 +37242,11 @@
         <f t="shared" si="1"/>
         <v>macaddr</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="7" t="s">
         <v>458</v>
       </c>
@@ -37172,8 +37262,11 @@
         <f t="shared" si="1"/>
         <v>money</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="G23" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="7" t="s">
         <v>523</v>
       </c>
@@ -37190,8 +37283,11 @@
       <c r="E24" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="G24" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="7" t="s">
         <v>460</v>
       </c>
@@ -37204,11 +37300,14 @@
         <v>526</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" ref="E25:E33" si="2">A25</f>
+        <f t="shared" ref="E24:G33" si="2">A25</f>
         <v>path</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="G25" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="7" t="s">
         <v>461</v>
       </c>
@@ -37224,8 +37323,11 @@
         <f t="shared" si="2"/>
         <v>pg_lsn</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="G26" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="7" t="s">
         <v>462</v>
       </c>
@@ -37241,8 +37343,11 @@
         <f t="shared" si="2"/>
         <v>point</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="G27" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="7" t="s">
         <v>463</v>
       </c>
@@ -37258,8 +37363,11 @@
         <f t="shared" si="2"/>
         <v>polygon</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="G28" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="7" t="s">
         <v>465</v>
       </c>
@@ -37277,8 +37385,11 @@
         <f t="shared" si="2"/>
         <v>real</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="G29" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="7" t="s">
         <v>466</v>
       </c>
@@ -37296,8 +37407,11 @@
         <f t="shared" si="2"/>
         <v>smallint</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="G30" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="7" t="s">
         <v>467</v>
       </c>
@@ -37315,8 +37429,11 @@
         <f t="shared" si="2"/>
         <v>smallserial</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="G31" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="7" t="s">
         <v>468</v>
       </c>
@@ -37334,8 +37451,11 @@
         <f t="shared" si="2"/>
         <v>serial</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="G32" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="7" t="s">
         <v>469</v>
       </c>
@@ -37351,8 +37471,11 @@
         <f t="shared" si="2"/>
         <v>text</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="G33" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="7" t="s">
         <v>538</v>
       </c>
@@ -37367,8 +37490,11 @@
       <c r="E34" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="G34" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="7" t="s">
         <v>540</v>
       </c>
@@ -37385,8 +37511,11 @@
       <c r="E35" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="G35" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="7" t="s">
         <v>543</v>
       </c>
@@ -37401,8 +37530,11 @@
       <c r="E36" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="G36" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="7" t="s">
         <v>545</v>
       </c>
@@ -37419,8 +37551,11 @@
       <c r="E37" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="G37" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="7" t="s">
         <v>472</v>
       </c>
@@ -37436,8 +37571,11 @@
         <f>A38</f>
         <v>tsquery</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="G38" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="7" t="s">
         <v>473</v>
       </c>
@@ -37453,8 +37591,11 @@
         <f>A39</f>
         <v>tsvector</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="G39" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="7" t="s">
         <v>474</v>
       </c>
@@ -37470,8 +37611,11 @@
         <f>A40</f>
         <v>txid_snapshot</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="G40" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="7" t="s">
         <v>475</v>
       </c>
@@ -37487,8 +37631,11 @@
         <f>A41</f>
         <v>uuid</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" thickBot="1">
+      <c r="G41" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15" thickBot="1">
       <c r="A42" s="12" t="s">
         <v>477</v>
       </c>
@@ -37504,45 +37651,63 @@
         <f>A42</f>
         <v>xml</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="G42" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="B43" s="9" t="s">
         <v>478</v>
       </c>
       <c r="E43" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="G43" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="B44" s="9" t="s">
         <v>479</v>
       </c>
       <c r="E44" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="G44" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="B45" s="9" t="s">
         <v>480</v>
       </c>
       <c r="E45" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="G45" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="B46" s="9" t="s">
         <v>481</v>
       </c>
       <c r="E46" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="G46" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="B47" s="9" t="s">
         <v>482</v>
       </c>
       <c r="E47" t="s">
         <v>483</v>
+      </c>
+      <c r="G47" t="s">
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -40448,21 +40613,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B05885-2AD0-4DE8-AAD6-1D4A8AAF633C}">
-  <dimension ref="A1:M72"/>
+  <dimension ref="A1:M145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110:XFD110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="39.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -40544,20 +40709,20 @@
       <c r="B5">
         <v>0</v>
       </c>
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" t="s">
+        <v>570</v>
+      </c>
       <c r="E5">
-        <v>16</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>575</v>
       </c>
       <c r="J5" s="1"/>
     </row>
@@ -40565,338 +40730,717 @@
       <c r="B6">
         <v>0</v>
       </c>
+      <c r="C6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="7" spans="1:13">
       <c r="B7">
         <v>0</v>
       </c>
+      <c r="C7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8">
+        <v>19</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" t="s">
+        <v>576</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11" t="s">
-        <v>206</v>
-      </c>
-      <c r="D11" t="s">
-        <v>72</v>
+        <v>93</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="C12" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" t="s">
-        <v>73</v>
+      <c r="B12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="C13" t="s">
-        <v>191</v>
-      </c>
-      <c r="D13" t="s">
-        <v>74</v>
+      <c r="B13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="C14" t="s">
-        <v>176</v>
-      </c>
-      <c r="D14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10">
-      <c r="C17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" t="s">
-        <v>570</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10">
-      <c r="C18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" t="s">
-        <v>202</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19">
+        <v>8</v>
+      </c>
       <c r="C19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" t="s">
-        <v>191</v>
-      </c>
-      <c r="E19">
-        <v>10</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20">
+        <v>8</v>
+      </c>
       <c r="C20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" t="s">
-        <v>176</v>
-      </c>
-      <c r="E20">
-        <v>19</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22">
+        <v>8</v>
+      </c>
       <c r="C22" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>340</v>
+      </c>
+      <c r="D104" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>352</v>
+      </c>
+      <c r="D105" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>64</v>
+      </c>
+      <c r="D106" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>82</v>
+      </c>
+      <c r="D107" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>348</v>
+      </c>
+      <c r="D108" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>351</v>
+      </c>
+      <c r="D109" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="C110" t="s">
+        <v>67</v>
+      </c>
+      <c r="D110" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="C111" t="s">
+        <v>79</v>
+      </c>
+      <c r="D111" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="C112" t="s">
+        <v>342</v>
+      </c>
+      <c r="D112" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4">
+      <c r="C113" t="s">
+        <v>344</v>
+      </c>
+      <c r="D113" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4">
+      <c r="C114" t="s">
+        <v>75</v>
+      </c>
+      <c r="D114" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="115" spans="3:4" ht="19.8" customHeight="1"/>
+    <row r="118" spans="3:4">
+      <c r="C118" t="s">
+        <v>354</v>
+      </c>
+      <c r="D118" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="119" spans="3:4">
+      <c r="C119" t="s">
+        <v>189</v>
+      </c>
+      <c r="D119" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="123" spans="3:4">
+      <c r="C123" t="s">
+        <v>346</v>
+      </c>
+      <c r="D123" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="124" spans="3:4">
+      <c r="C124" t="s">
+        <v>186</v>
+      </c>
+      <c r="D124" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="125" spans="3:4">
+      <c r="C125" t="s">
+        <v>347</v>
+      </c>
+      <c r="D125" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="126" spans="3:4">
+      <c r="C126" t="s">
+        <v>76</v>
+      </c>
+      <c r="D126" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="127" spans="3:4">
+      <c r="C127" t="s">
+        <v>350</v>
+      </c>
+      <c r="D127" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="131" spans="3:4">
+      <c r="C131" t="s">
+        <v>353</v>
+      </c>
+      <c r="D131" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="132" spans="3:4">
+      <c r="C132" t="s">
+        <v>97</v>
+      </c>
+      <c r="D132" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="136" spans="3:4">
+      <c r="C136" t="s">
+        <v>87</v>
+      </c>
+      <c r="D136" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="137" spans="3:4">
+      <c r="C137" t="s">
+        <v>77</v>
+      </c>
+      <c r="D137" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="140" spans="3:4">
+      <c r="C140" t="s">
+        <v>62</v>
+      </c>
+      <c r="D140" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="141" spans="3:4">
+      <c r="C141" t="s">
+        <v>198</v>
+      </c>
+      <c r="D141" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="142" spans="3:4">
+      <c r="C142" t="s">
+        <v>66</v>
+      </c>
+      <c r="D142" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="143" spans="3:4">
+      <c r="C143" t="s">
+        <v>100</v>
+      </c>
+      <c r="D143" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="145" spans="3:4">
+      <c r="C145" t="s">
         <v>339</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D145" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10">
-      <c r="C23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" spans="3:10">
-      <c r="C30" t="s">
-        <v>340</v>
-      </c>
-      <c r="D30" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="31" spans="3:10">
-      <c r="C31" t="s">
-        <v>352</v>
-      </c>
-      <c r="D31" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="32" spans="3:10">
-      <c r="C32" t="s">
-        <v>210</v>
-      </c>
-      <c r="D32" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4">
-      <c r="C33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4">
-      <c r="C34" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4">
-      <c r="C35" t="s">
-        <v>348</v>
-      </c>
-      <c r="D35" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4">
-      <c r="C36" t="s">
-        <v>351</v>
-      </c>
-      <c r="D36" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4">
-      <c r="C37" t="s">
-        <v>196</v>
-      </c>
-      <c r="D37" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4">
-      <c r="C39" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4">
-      <c r="C40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4">
-      <c r="C41" t="s">
-        <v>342</v>
-      </c>
-      <c r="D41" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4">
-      <c r="C42" t="s">
-        <v>344</v>
-      </c>
-      <c r="D42" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4">
-      <c r="C43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4">
-      <c r="C47" t="s">
-        <v>354</v>
-      </c>
-      <c r="D47" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="48" spans="3:4">
-      <c r="C48" t="s">
-        <v>189</v>
-      </c>
-      <c r="D48" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4">
-      <c r="C52" t="s">
-        <v>346</v>
-      </c>
-      <c r="D52" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4">
-      <c r="C53" t="s">
-        <v>186</v>
-      </c>
-      <c r="D53" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4">
-      <c r="C54" t="s">
-        <v>347</v>
-      </c>
-      <c r="D54" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="55" spans="3:4">
-      <c r="C55" t="s">
-        <v>76</v>
-      </c>
-      <c r="D55" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="56" spans="3:4">
-      <c r="C56" t="s">
-        <v>350</v>
-      </c>
-      <c r="D56" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="60" spans="3:4">
-      <c r="C60" t="s">
-        <v>353</v>
-      </c>
-      <c r="D60" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="61" spans="3:4">
-      <c r="C61" t="s">
-        <v>97</v>
-      </c>
-      <c r="D61" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4">
-      <c r="C65" t="s">
-        <v>87</v>
-      </c>
-      <c r="D65" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="66" spans="3:4">
-      <c r="C66" t="s">
-        <v>77</v>
-      </c>
-      <c r="D66" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="69" spans="3:4">
-      <c r="C69" t="s">
-        <v>62</v>
-      </c>
-      <c r="D69" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="70" spans="3:4">
-      <c r="C70" t="s">
-        <v>198</v>
-      </c>
-      <c r="D70" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="71" spans="3:4">
-      <c r="C71" t="s">
-        <v>66</v>
-      </c>
-      <c r="D71" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="72" spans="3:4">
-      <c r="C72" t="s">
-        <v>100</v>
-      </c>
-      <c r="D72" t="s">
-        <v>211</v>
       </c>
     </row>
   </sheetData>
